--- a/csv/Burst.xlsx
+++ b/csv/Burst.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\FFXIV_Auxiliary_Tools\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E40BA9C-F596-4DFF-A0DE-F11F06B8C0C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA13B56-92DE-4648-827A-7739BB3CE99D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="27645" windowHeight="13455" xr2:uid="{F4CAF3F7-A1BA-4734-A589-44695F527C6A}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="27645" windowHeight="13455" xr2:uid="{F4CAF3F7-A1BA-4734-A589-44695F527C6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -209,6 +209,9 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
+          <cell r="D2">
+            <v>1.1537167180000001</v>
+          </cell>
           <cell r="E2">
             <v>12</v>
           </cell>
@@ -217,6 +220,9 @@
           </cell>
         </row>
         <row r="3">
+          <cell r="D3">
+            <v>1.4071042970000001</v>
+          </cell>
           <cell r="E3">
             <v>20</v>
           </cell>
@@ -225,14 +231,20 @@
           </cell>
         </row>
         <row r="4">
+          <cell r="D4">
+            <v>2.0261672389999998</v>
+          </cell>
           <cell r="E4">
-            <v>15</v>
+            <v>12</v>
           </cell>
           <cell r="F4">
             <v>90</v>
           </cell>
         </row>
         <row r="5">
+          <cell r="D5">
+            <v>1.4150717909999999</v>
+          </cell>
           <cell r="E5">
             <v>20</v>
           </cell>
@@ -241,6 +253,9 @@
           </cell>
         </row>
         <row r="6">
+          <cell r="D6">
+            <v>1.2608536779999999</v>
+          </cell>
           <cell r="E6">
             <v>20</v>
           </cell>
@@ -249,6 +264,9 @@
           </cell>
         </row>
         <row r="7">
+          <cell r="D7">
+            <v>1.1175419230000001</v>
+          </cell>
           <cell r="E7">
             <v>15</v>
           </cell>
@@ -257,6 +275,9 @@
           </cell>
         </row>
         <row r="8">
+          <cell r="D8">
+            <v>1.000460117</v>
+          </cell>
           <cell r="E8">
             <v>30</v>
           </cell>
@@ -265,6 +286,9 @@
           </cell>
         </row>
         <row r="10">
+          <cell r="D10">
+            <v>1.2309109579999999</v>
+          </cell>
           <cell r="E10">
             <v>20</v>
           </cell>
@@ -273,6 +297,9 @@
           </cell>
         </row>
         <row r="11">
+          <cell r="D11">
+            <v>1.012932028</v>
+          </cell>
           <cell r="E11">
             <v>12.5</v>
           </cell>
@@ -281,6 +308,9 @@
           </cell>
         </row>
         <row r="13">
+          <cell r="D13">
+            <v>1.864499739</v>
+          </cell>
           <cell r="E13">
             <v>15</v>
           </cell>
@@ -289,6 +319,9 @@
           </cell>
         </row>
         <row r="14">
+          <cell r="D14">
+            <v>1.468880062</v>
+          </cell>
           <cell r="E14">
             <v>15</v>
           </cell>
@@ -297,6 +330,9 @@
           </cell>
         </row>
         <row r="15">
+          <cell r="D15">
+            <v>1.897432091</v>
+          </cell>
           <cell r="E15">
             <v>12.5</v>
           </cell>
@@ -304,7 +340,18 @@
             <v>90</v>
           </cell>
         </row>
+        <row r="16">
+          <cell r="E16">
+            <v>10</v>
+          </cell>
+          <cell r="F16">
+            <v>90</v>
+          </cell>
+        </row>
         <row r="17">
+          <cell r="D17">
+            <v>1.506298546</v>
+          </cell>
           <cell r="E17">
             <v>10</v>
           </cell>
@@ -313,6 +360,9 @@
           </cell>
         </row>
         <row r="18">
+          <cell r="D18">
+            <v>1.3725934790000001</v>
+          </cell>
           <cell r="E18">
             <v>15</v>
           </cell>
@@ -321,6 +371,9 @@
           </cell>
         </row>
         <row r="20">
+          <cell r="D20">
+            <v>1.3505694479999999</v>
+          </cell>
           <cell r="E20">
             <v>20</v>
           </cell>
@@ -329,6 +382,9 @@
           </cell>
         </row>
         <row r="21">
+          <cell r="D21">
+            <v>1.6374370659999999</v>
+          </cell>
           <cell r="E21">
             <v>20</v>
           </cell>
@@ -639,15 +695,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E53B25-2C31-426B-AB19-F121F87F0830}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>16750.373458000002</v>
       </c>
@@ -659,7 +715,7 @@
         <v>15</v>
       </c>
       <c r="D1" s="2" t="str">
-        <f>LEFT(C1,FIND("&amp;",C1,1)-1)</f>
+        <f t="shared" ref="D1:D7" si="0">LEFT(C1,FIND("&amp;",C1,1)-1)</f>
         <v>7407074</v>
       </c>
       <c r="E1" s="2">
@@ -667,11 +723,11 @@
         <v>7467074</v>
       </c>
       <c r="F1" s="2" t="str">
-        <f>RIGHT(C1,LEN(C1)-FIND("=",C1,1))</f>
+        <f t="shared" ref="F1:F7" si="1">RIGHT(C1,LEN(C1)-FIND("=",C1,1))</f>
         <v>7419779</v>
       </c>
       <c r="G1" t="str">
-        <f>F1&amp;"&amp;end="&amp;E1</f>
+        <f t="shared" ref="G1:G7" si="2">F1&amp;"&amp;end="&amp;E1</f>
         <v>7419779&amp;end=7467074</v>
       </c>
       <c r="H1" s="1">
@@ -685,20 +741,24 @@
         <f>H1/((B1*[1]AstAutoCard!E2+H1*([1]AstAutoCard!F2-[1]AstAutoCard!E2))/[1]AstAutoCard!F2)</f>
         <v>0.96157082059306076</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L1">
+        <f>([1]AstAutoCard!F2-[1]AstAutoCard!D2*[1]AstAutoCard!E2)/[1]AstAutoCard!F2/(([1]AstAutoCard!F2-[1]AstAutoCard!E2)/[1]AstAutoCard!F2)</f>
+        <v>0.96157082049999987</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>37727.300000000003</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:B20" si="0">A2*0.915421</f>
+        <f t="shared" ref="B2:B20" si="3">A2*0.915421</f>
         <v>34536.362693300005</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="2" t="str">
-        <f>LEFT(C2,FIND("&amp;",C2,1)-1)</f>
+        <f t="shared" si="0"/>
         <v>4421095</v>
       </c>
       <c r="E2" s="2">
@@ -706,11 +766,11 @@
         <v>4511095</v>
       </c>
       <c r="F2" s="2" t="str">
-        <f>RIGHT(C2,LEN(C2)-FIND("=",C2,1))</f>
+        <f t="shared" si="1"/>
         <v>4441067</v>
       </c>
       <c r="G2" t="str">
-        <f>F2&amp;"&amp;end="&amp;E2</f>
+        <f t="shared" si="2"/>
         <v>4441067&amp;end=4511095</v>
       </c>
       <c r="H2" s="1">
@@ -725,20 +785,24 @@
         <f>H2/((B2*[1]AstAutoCard!E3+H2*([1]AstAutoCard!F3-[1]AstAutoCard!E3))/[1]AstAutoCard!F3)</f>
         <v>0.88368448661378596</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L2">
+        <f>([1]AstAutoCard!F3-[1]AstAutoCard!D3*[1]AstAutoCard!E3)/[1]AstAutoCard!F3/(([1]AstAutoCard!F3-[1]AstAutoCard!E3)/[1]AstAutoCard!F3)</f>
+        <v>0.88368448657142862</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>30676.6</v>
       </c>
       <c r="B3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>28082.003848600001</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="2" t="str">
-        <f>LEFT(C3,FIND("&amp;",C3,1)-1)</f>
+        <f t="shared" si="0"/>
         <v>393859</v>
       </c>
       <c r="E3" s="2">
@@ -746,11 +810,11 @@
         <v>483859</v>
       </c>
       <c r="F3" s="2" t="str">
-        <f>RIGHT(C3,LEN(C3)-FIND("=",C3,1))</f>
+        <f t="shared" si="1"/>
         <v>408357</v>
       </c>
       <c r="G3" t="str">
-        <f>F3&amp;"&amp;end="&amp;E3</f>
+        <f t="shared" si="2"/>
         <v>408357&amp;end=483859</v>
       </c>
       <c r="H3" s="1">
@@ -758,26 +822,30 @@
       </c>
       <c r="I3">
         <f>B3/((B3*[1]AstAutoCard!E4+H3*([1]AstAutoCard!F4-[1]AstAutoCard!E4))/[1]AstAutoCard!F4)</f>
-        <v>2.0261672393960022</v>
+        <v>2.1128945667853181</v>
       </c>
       <c r="J3">
         <f>H3/((B3*[1]AstAutoCard!E4+H3*([1]AstAutoCard!F4-[1]AstAutoCard!E4))/[1]AstAutoCard!F4)</f>
-        <v>0.7947665521207995</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.8287854512637971</v>
+      </c>
+      <c r="L3">
+        <f>([1]AstAutoCard!F4-[1]AstAutoCard!D4*[1]AstAutoCard!E4)/[1]AstAutoCard!F4/(([1]AstAutoCard!F4-[1]AstAutoCard!E4)/[1]AstAutoCard!F4)</f>
+        <v>0.84212811707692303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>33499.899999999994</v>
       </c>
       <c r="B4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>30666.511957899995</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="2" t="str">
-        <f>LEFT(C4,FIND("&amp;",C4,1)-1)</f>
+        <f t="shared" si="0"/>
         <v>689706</v>
       </c>
       <c r="E4" s="2">
@@ -785,11 +853,11 @@
         <v>779706</v>
       </c>
       <c r="F4" s="2" t="str">
-        <f>RIGHT(C4,LEN(C4)-FIND("=",C4,1))</f>
+        <f t="shared" si="1"/>
         <v>709948</v>
       </c>
       <c r="G4" t="str">
-        <f>F4&amp;"&amp;end="&amp;E4</f>
+        <f t="shared" si="2"/>
         <v>709948&amp;end=779706</v>
       </c>
       <c r="H4" s="1">
@@ -804,20 +872,24 @@
         <f>H4/((B4*[1]AstAutoCard!E5+H4*([1]AstAutoCard!F5-[1]AstAutoCard!E5))/[1]AstAutoCard!F5)</f>
         <v>0.88140805969798897</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L4">
+        <f>([1]AstAutoCard!F5-[1]AstAutoCard!D5*[1]AstAutoCard!E5)/[1]AstAutoCard!F5/(([1]AstAutoCard!F5-[1]AstAutoCard!E5)/[1]AstAutoCard!F5)</f>
+        <v>0.88140805971428582</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>27528.300000000003</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>25199.983914300003</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="2" t="str">
-        <f>LEFT(C5,FIND("&amp;",C5,1)-1)</f>
+        <f t="shared" si="0"/>
         <v>2111321</v>
       </c>
       <c r="E5" s="2">
@@ -825,11 +897,11 @@
         <v>2191321</v>
       </c>
       <c r="F5" s="2" t="str">
-        <f>RIGHT(C5,LEN(C5)-FIND("=",C5,1))</f>
+        <f t="shared" si="1"/>
         <v>2131611</v>
       </c>
       <c r="G5" t="str">
-        <f>F5&amp;"&amp;end="&amp;E5</f>
+        <f t="shared" si="2"/>
         <v>2131611&amp;end=2191321</v>
       </c>
       <c r="H5" s="1">
@@ -844,20 +916,24 @@
         <f>H5/((B5*[1]AstAutoCard!E6+H5*([1]AstAutoCard!F6-[1]AstAutoCard!E6))/[1]AstAutoCard!F6)</f>
         <v>0.9130487741323331</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L5">
+        <f>([1]AstAutoCard!F6-[1]AstAutoCard!D6*[1]AstAutoCard!E6)/[1]AstAutoCard!F6/(([1]AstAutoCard!F6-[1]AstAutoCard!E6)/[1]AstAutoCard!F6)</f>
+        <v>0.91304877399999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>17879.5</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>16367.269769500001</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="2" t="str">
-        <f>LEFT(C6,FIND("&amp;",C6,1)-1)</f>
+        <f t="shared" si="0"/>
         <v>2822244</v>
       </c>
       <c r="E6" s="2">
@@ -865,11 +941,11 @@
         <v>2972244</v>
       </c>
       <c r="F6" s="2" t="str">
-        <f>RIGHT(C6,LEN(C6)-FIND("=",C6,1))</f>
+        <f t="shared" si="1"/>
         <v>2837502</v>
       </c>
       <c r="G6" t="str">
-        <f>F6&amp;"&amp;end="&amp;E6</f>
+        <f t="shared" si="2"/>
         <v>2837502&amp;end=2972244</v>
       </c>
       <c r="H6" s="1">
@@ -884,20 +960,24 @@
         <f>H6/((B6*[1]AstAutoCard!E7+H6*([1]AstAutoCard!F7-[1]AstAutoCard!E7))/[1]AstAutoCard!F7)</f>
         <v>0.98693978631171031</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L6">
+        <f>([1]AstAutoCard!F7-[1]AstAutoCard!D7*[1]AstAutoCard!E7)/[1]AstAutoCard!F7/(([1]AstAutoCard!F7-[1]AstAutoCard!E7)/[1]AstAutoCard!F7)</f>
+        <v>0.98693978633333324</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>26338.3</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>24110.6329243</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="str">
-        <f>LEFT(C7,FIND("&amp;",C7,1)-1)</f>
+        <f t="shared" si="0"/>
         <v>23825779</v>
       </c>
       <c r="E7" s="2">
@@ -905,11 +985,11 @@
         <v>23915779</v>
       </c>
       <c r="F7" s="2" t="str">
-        <f>RIGHT(C7,LEN(C7)-FIND("=",C7,1))</f>
+        <f t="shared" si="1"/>
         <v>23856161</v>
       </c>
       <c r="G7" t="str">
-        <f>F7&amp;"&amp;end="&amp;E7</f>
+        <f t="shared" si="2"/>
         <v>23856161&amp;end=23915779</v>
       </c>
       <c r="H7" s="1">
@@ -923,22 +1003,26 @@
         <f>H7/((B7*[1]AstAutoCard!E8+H7*([1]AstAutoCard!F8-[1]AstAutoCard!E8))/[1]AstAutoCard!F8)</f>
         <v>0.99976994137195641</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L7">
+        <f>([1]AstAutoCard!F8-[1]AstAutoCard!D8*[1]AstAutoCard!E8)/[1]AstAutoCard!F8/(([1]AstAutoCard!F8-[1]AstAutoCard!E8)/[1]AstAutoCard!F8)</f>
+        <v>0.99976994149999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>27915.8</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>25554.709551799999</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -971,13 +1055,17 @@
         <f>H9/((B9*[1]AstAutoCard!E10+H9*([1]AstAutoCard!F10-[1]AstAutoCard!E10))/[1]AstAutoCard!F10)</f>
         <v>0.9486864537013292</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L9">
+        <f>([1]AstAutoCard!F10-[1]AstAutoCard!D10*[1]AstAutoCard!E10)/[1]AstAutoCard!F10/(([1]AstAutoCard!F10-[1]AstAutoCard!E10)/[1]AstAutoCard!F10)</f>
+        <v>0.94868645377777783</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>14246.699999999999</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>13041.728360699999</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -1011,22 +1099,26 @@
         <f>H10/((B10*[1]AstAutoCard!E11+H10*([1]AstAutoCard!F11-[1]AstAutoCard!E11))/[1]AstAutoCard!F11)</f>
         <v>0.99903492326978049</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L10">
+        <f>([1]AstAutoCard!F11-[1]AstAutoCard!D11*[1]AstAutoCard!E11)/[1]AstAutoCard!F11/(([1]AstAutoCard!F11-[1]AstAutoCard!E11)/[1]AstAutoCard!F11)</f>
+        <v>0.99903492328358201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>46541.3</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42604.883387300004</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1059,13 +1151,17 @@
         <f>H12/((B12*[1]AstAutoCard!E13+H12*([1]AstAutoCard!F13-[1]AstAutoCard!E13))/[1]AstAutoCard!F13)</f>
         <v>0.71183342022547635</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L12">
+        <f>([1]AstAutoCard!F13-[1]AstAutoCard!D13*[1]AstAutoCard!E13)/[1]AstAutoCard!F13/(([1]AstAutoCard!F13-[1]AstAutoCard!E13)/[1]AstAutoCard!F13)</f>
+        <v>0.7118334203333333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>34113.1</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>31227.848115100001</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -1098,13 +1194,17 @@
         <f>H13/((B13*[1]AstAutoCard!E14+H13*([1]AstAutoCard!F14-[1]AstAutoCard!E14))/[1]AstAutoCard!F14)</f>
         <v>0.9330171340497968</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L13">
+        <f>([1]AstAutoCard!F14-[1]AstAutoCard!D14*[1]AstAutoCard!E14)/[1]AstAutoCard!F14/(([1]AstAutoCard!F14-[1]AstAutoCard!E14)/[1]AstAutoCard!F14)</f>
+        <v>0.93301713400000008</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>29327.3</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>26846.826293300001</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -1137,19 +1237,27 @@
         <f>H14/((B14*[1]AstAutoCard!E15+H14*([1]AstAutoCard!F15-[1]AstAutoCard!E15))/[1]AstAutoCard!F15)</f>
         <v>0.85525288852374259</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L14">
+        <f>([1]AstAutoCard!F15-[1]AstAutoCard!D15*[1]AstAutoCard!E15)/[1]AstAutoCard!F15/(([1]AstAutoCard!F15-[1]AstAutoCard!E15)/[1]AstAutoCard!F15)</f>
+        <v>0.85525288854838688</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L15">
+        <f>([1]AstAutoCard!F16-[1]AstAutoCard!D16*[1]AstAutoCard!E16)/[1]AstAutoCard!F16/(([1]AstAutoCard!F16-[1]AstAutoCard!E16)/[1]AstAutoCard!F16)</f>
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>42773</v>
       </c>
       <c r="B16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>39155.302433000004</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -1182,13 +1290,17 @@
         <f>H16/((B16*[1]AstAutoCard!E17+H16*([1]AstAutoCard!F17-[1]AstAutoCard!E17))/[1]AstAutoCard!F17)</f>
         <v>0.89874029077669271</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L16">
+        <f>([1]AstAutoCard!F17-[1]AstAutoCard!D17*[1]AstAutoCard!E17)/[1]AstAutoCard!F17/(([1]AstAutoCard!F17-[1]AstAutoCard!E17)/[1]AstAutoCard!F17)</f>
+        <v>0.89874029079999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>33410.799999999996</v>
       </c>
       <c r="B17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>30584.947946799999</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -1222,22 +1334,26 @@
         <f>H17/((B17*[1]AstAutoCard!E18+H17*([1]AstAutoCard!F18-[1]AstAutoCard!E18))/[1]AstAutoCard!F18)</f>
         <v>0.94116945071633529</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L17">
+        <f>([1]AstAutoCard!F18-[1]AstAutoCard!D18*[1]AstAutoCard!E18)/[1]AstAutoCard!F18/(([1]AstAutoCard!F18-[1]AstAutoCard!E18)/[1]AstAutoCard!F18)</f>
+        <v>0.94116945068421065</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>20487.3</v>
       </c>
       <c r="B19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>18754.504653299999</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -1270,13 +1386,17 @@
         <f>H19/((B19*[1]AstAutoCard!E20+H19*([1]AstAutoCard!F20-[1]AstAutoCard!E20))/[1]AstAutoCard!F20)</f>
         <v>0.82471527619061402</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L19">
+        <f>([1]AstAutoCard!F20-[1]AstAutoCard!D20*[1]AstAutoCard!E20)/[1]AstAutoCard!F20/(([1]AstAutoCard!F20-[1]AstAutoCard!E20)/[1]AstAutoCard!F20)</f>
+        <v>0.82471527600000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>32720.6</v>
       </c>
       <c r="B20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>29953.124372599999</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -1309,6 +1429,10 @@
       <c r="J20">
         <f>H20/((B20*[1]AstAutoCard!E21+H20*([1]AstAutoCard!F21-[1]AstAutoCard!E21))/[1]AstAutoCard!F21)</f>
         <v>0.8725125868594068</v>
+      </c>
+      <c r="L20">
+        <f>([1]AstAutoCard!F21-[1]AstAutoCard!D21*[1]AstAutoCard!E21)/[1]AstAutoCard!F21/(([1]AstAutoCard!F21-[1]AstAutoCard!E21)/[1]AstAutoCard!F21)</f>
+        <v>0.8725125868000001</v>
       </c>
     </row>
   </sheetData>
